--- a/Tabellen/ZeitplanungKomplett.xlsx
+++ b/Tabellen/ZeitplanungKomplett.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543380dfb0ee7136/ProgrammingProjects/latex-vorlage-fiae/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{BB59B9A8-18C1-43C1-B28C-E3E04AD7248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A5147B-A4F1-4302-A130-91654567B17C}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{BB59B9A8-18C1-43C1-B28C-E3E04AD7248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99E79FA4-D87A-4E2C-B342-0045E8CCFCBD}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2839" windowWidth="26083" windowHeight="14373" activeTab="2" xr2:uid="{253A6C2C-360F-4413-9A3D-C3C2B99F480F}"/>
+    <workbookView xWindow="34669" yWindow="2350" windowWidth="26300" windowHeight="14889" activeTab="3" xr2:uid="{253A6C2C-360F-4413-9A3D-C3C2B99F480F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Excel2LaTeX" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>Analysephase</t>
   </si>
@@ -118,15 +119,6 @@
     <t>Erstellung des Benutzerhandbuchs</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Aufgabe</t>
-  </si>
-  <si>
-    <t>Zeit</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -136,19 +128,28 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>1. Analysephase</t>
-  </si>
-  <si>
-    <t>2. Entwurf</t>
-  </si>
-  <si>
-    <t>3. Implementierung inkl. Tests</t>
-  </si>
-  <si>
-    <t>4. Abnahme und Einführung</t>
-  </si>
-  <si>
-    <t>5. Dokumentation</t>
+    <t>RangeAddress</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>CellWidth</t>
+  </si>
+  <si>
+    <t>Indent</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Sheet1.tex</t>
+  </si>
+  <si>
+    <t>Erstellung eines Benutzerhandbuchs</t>
+  </si>
+  <si>
+    <t>Erstellung der Projektdokumentation</t>
   </si>
 </sst>
 </file>
@@ -234,18 +235,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -264,22 +263,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="265">
+  <dxfs count="79">
     <dxf>
       <font>
         <color auto="1"/>
@@ -348,21 +348,6 @@
     <dxf>
       <font>
         <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -395,6 +380,160 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment wrapText="1" indent="0"/>
     </dxf>
     <dxf>
@@ -420,6 +559,83 @@
     </dxf>
     <dxf>
       <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -496,83 +712,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment wrapText="1" indent="0"/>
     </dxf>
     <dxf>
@@ -595,1245 +734,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" indent="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0\ &quot;h&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1855,7 +755,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fabian Schmidberger" refreshedDate="45250.280951273147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{4A6B5033-4BE7-47D9-A9D1-9A9C53704EDA}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
+    <worksheetSource ref="A2:B25" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Phase" numFmtId="0">
@@ -2140,20 +1040,20 @@
     <dataField name="Sum of Zeit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="30">
-    <format dxfId="202">
+    <format dxfId="78">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2168,7 +1068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2182,7 +1082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2194,7 +1094,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2206,7 +1106,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2228,26 +1128,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="70">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="69">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="68">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="213">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2262,7 +1162,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2276,7 +1176,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2288,7 +1188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2300,7 +1200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2322,29 +1222,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="221">
+    <format dxfId="59">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="222">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="57">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="224">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2359,7 +1259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2373,7 +1273,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2385,7 +1285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="229">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2397,7 +1297,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2419,7 +1319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -2567,20 +1467,20 @@
     <dataField name="Sum of Zeit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="49">
-    <format dxfId="22">
+    <format dxfId="48">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2595,7 +1495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2609,7 +1509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2621,7 +1521,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2633,7 +1533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2655,23 +1555,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="38">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="35">
@@ -2689,7 +1589,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2703,7 +1603,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2715,7 +1615,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2727,7 +1627,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2749,29 +1649,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="27">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2786,7 +1686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2800,7 +1700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2812,7 +1712,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2824,7 +1724,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2846,10 +1746,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="18">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="8">
@@ -2865,35 +1765,35 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="17">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="16">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2908,7 +1808,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2922,7 +1822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2934,7 +1834,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2946,7 +1846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -2968,7 +1868,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="3">
@@ -3018,18 +1918,6 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A69A95F-E20C-44E3-83BC-F64B31D53BA8}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{9A69A95F-E20C-44E3-83BC-F64B31D53BA8}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C378D26-509E-46F4-A190-43663B8707E4}" name="Phase"/>
-    <tableColumn id="2" xr3:uid="{30F58E3B-E39C-4277-AEC0-8C1ABDD9FE1B}" name="Aufgabe"/>
-    <tableColumn id="3" xr3:uid="{0A072B8D-0A3C-461B-9E33-3F4AEB652BA8}" name="Zeit" dataDxfId="264"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3332,7 +2220,14 @@
   <dimension ref="A3:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A23" activeCellId="4" sqref="A5:A8 A10:A12 A14 A16 A18:A28"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="1" activeRow="22" previousRow="22" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3342,218 +2237,218 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>29</v>
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
         <v>76</v>
       </c>
     </row>
@@ -3567,229 +2462,229 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="71.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>29</v>
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="19">
+      <c r="A27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="16">
         <v>76</v>
       </c>
     </row>
@@ -3799,255 +2694,306 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598DEF96-3A65-4807-B33E-DFFDB17256CB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>COUNT(Sheet1!$A$1:$C$27)</f>
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B112F01-A08B-4E97-9C3F-7A4EC6008279}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="83.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="83.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="17">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="17">
         <v>8</v>
       </c>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="17">
         <v>1</v>
       </c>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="17">
         <v>3</v>
       </c>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="17">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
         <v>1</v>
       </c>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B15" s="17">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="17">
+        <v>4</v>
+      </c>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B17" s="17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B18" s="17">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C19" s="17">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17">
         <v>2</v>
       </c>
+      <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17">
+        <v>5</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17">
+        <v>2</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
+      <c r="B26" s="17">
+        <v>8</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="18">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Tabellen/ZeitplanungKomplett.xlsx
+++ b/Tabellen/ZeitplanungKomplett.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543380dfb0ee7136/ProgrammingProjects/latex-vorlage-fiae/Tabellen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arsandis-my.sharepoint.com/personal/fabian_schmidberger_arsandis_com/Documents/!My Data/Ausbildung Projektarbeit/latex-vorlage-fiae/Tabellen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{BB59B9A8-18C1-43C1-B28C-E3E04AD7248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99E79FA4-D87A-4E2C-B342-0045E8CCFCBD}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{BB59B9A8-18C1-43C1-B28C-E3E04AD7248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71D0DA6D-C3CB-4CEA-B3F3-15D8FC7E943E}"/>
   <bookViews>
-    <workbookView xWindow="34669" yWindow="2350" windowWidth="26300" windowHeight="14889" activeTab="3" xr2:uid="{253A6C2C-360F-4413-9A3D-C3C2B99F480F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{253A6C2C-360F-4413-9A3D-C3C2B99F480F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -146,10 +146,10 @@
     <t>Sheet1.tex</t>
   </si>
   <si>
-    <t>Erstellung eines Benutzerhandbuchs</t>
-  </si>
-  <si>
     <t>Erstellung der Projektdokumentation</t>
+  </si>
+  <si>
+    <t>Erstellung eines Adminhandbuchs</t>
   </si>
 </sst>
 </file>
@@ -746,10 +746,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2230,13 +2226,13 @@
       </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2244,7 +2240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -2260,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2268,7 +2264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -2300,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -2324,7 +2320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -2332,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -2340,7 +2336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -2364,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2396,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2420,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -2436,7 +2432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2465,14 +2461,14 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" style="11" customWidth="1"/>
     <col min="3" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
@@ -2480,7 +2476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
@@ -2504,7 +2500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
@@ -2528,7 +2524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>1</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>7</v>
       </c>
@@ -2608,7 +2604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>11</v>
       </c>
@@ -2616,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
@@ -2624,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>14</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>16</v>
       </c>
@@ -2656,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>17</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>27</v>
       </c>
@@ -2699,9 +2695,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2718,7 +2714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNT(Sheet1!$A$1:$C$27)</f>
         <v>27</v>
@@ -2746,16 +2742,16 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="83.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2768,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2781,7 +2777,7 @@
       </c>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2790,7 +2786,7 @@
       </c>
       <c r="C4" s="17"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2798,7 +2794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2807,7 +2803,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2815,7 +2811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2824,7 +2820,7 @@
       </c>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2833,7 +2829,7 @@
       </c>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2842,7 +2838,7 @@
       </c>
       <c r="C10" s="17"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2851,7 +2847,7 @@
       </c>
       <c r="C11" s="17"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2860,7 +2856,7 @@
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2869,7 +2865,7 @@
       </c>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2878,7 +2874,7 @@
       </c>
       <c r="C14" s="17"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2887,7 +2883,7 @@
       </c>
       <c r="C15" s="17"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2896,7 +2892,7 @@
       </c>
       <c r="C16" s="17"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2905,7 +2901,7 @@
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2914,7 +2910,7 @@
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2922,7 +2918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2931,7 +2927,7 @@
       </c>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2940,7 +2936,7 @@
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2949,7 +2945,7 @@
       </c>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2958,7 +2954,7 @@
       </c>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2966,25 +2962,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="17">
         <v>1</v>
       </c>
       <c r="C25" s="17"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="17">
         <v>8</v>
       </c>
       <c r="C26" s="17"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -2995,5 +2991,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>